--- a/Data recorded.xlsx
+++ b/Data recorded.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Selection Sort</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>n = 800</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -95,7 +98,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -107,6 +110,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -124,6 +130,4578 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Random</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Array</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>n = 50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>n = 100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>n = 200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>n = 400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>n = 800</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.8634000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.141981</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7789000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11704199999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46027800000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA4E-4B23-B5A5-76F026288F8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>n = 50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>n = 100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>n = 200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>n = 400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>n = 800</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.74E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8079999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4359999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>6.8999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4040000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EA4E-4B23-B5A5-76F026288F8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="413220008"/>
+        <c:axId val="413218696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="413220008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of elements</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413218696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="413218696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Miliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413220008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ordered</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Array</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>n = 50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>n = 100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>n = 200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>n = 400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>n = 800</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.7610000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13491700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0854000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.111771</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45682299999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-732E-4A8B-BD20-83C3F58F94D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>n = 50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>n = 100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>n = 200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>n = 400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>n = 800</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.4510000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9859999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0899999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7300000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0939999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-732E-4A8B-BD20-83C3F58F94D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="503559112"/>
+        <c:axId val="503560424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="503559112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of elements</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503560424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="503560424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Miliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503559112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Partially</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Ordered Array</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>n = 50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>n = 100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>n = 200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>n = 400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>n = 800</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.4645999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9927000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7812E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.110189</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48072700000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-666B-499A-8C78-D2CD9091FCE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>n = 50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>n = 100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>n = 200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>n = 400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>n = 800</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0300000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.14E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.28E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1620000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-666B-499A-8C78-D2CD9091FCE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="413215088"/>
+        <c:axId val="413219680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="413215088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of elements</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413219680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="413219680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Miliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413215088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Reverse</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Ordered Array</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>n = 50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>n = 100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>n = 200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>n = 400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>n = 800</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.2300999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2784999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9364000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.114803</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54330000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A111-4B2E-B3E8-59E62CADDDCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>n = 50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>n = 100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>n = 200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>n = 400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>n = 800</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.2099999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.933E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5399999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0870000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A111-4B2E-B3E8-59E62CADDDCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="507098480"/>
+        <c:axId val="507099136"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="507098480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of elements</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507099136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="507099136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>miliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507098480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{527B53AE-76EC-444C-9172-73D7DA0320D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>708660</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6290541-B623-40F8-ABBC-415A8FE8BEA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{548F7016-A456-4FE7-91AD-1308FB76E722}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BE7AD0A-A5C2-4CD9-94C1-30059F048381}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,24 +4986,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,28 +5037,28 @@
         <v>6</v>
       </c>
       <c r="B3" s="3">
-        <v>4.9688999999999997E-2</v>
+        <v>3.8634000000000002E-2</v>
       </c>
       <c r="C3" s="3">
-        <v>1.9819999999999998E-3</v>
+        <v>1.74E-3</v>
       </c>
       <c r="D3" s="3">
-        <v>2.2159999999999999E-2</v>
+        <v>1.7610000000000001E-2</v>
       </c>
       <c r="E3" s="3">
-        <v>2.4840000000000001E-3</v>
+        <v>3.4510000000000001E-3</v>
       </c>
       <c r="F3" s="3">
-        <v>1.1712E-2</v>
+        <v>1.4645999999999999E-2</v>
       </c>
       <c r="G3" s="3">
-        <v>2.2729999999999998E-3</v>
+        <v>1.0300000000000001E-3</v>
       </c>
       <c r="H3" s="3">
-        <v>1.9018E-2</v>
-      </c>
-      <c r="I3" s="4">
-        <v>6.6E-4</v>
+        <v>1.2300999999999999E-2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5.2099999999999998E-4</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -485,28 +5066,28 @@
         <v>7</v>
       </c>
       <c r="B4" s="3">
-        <v>7.4813000000000004E-2</v>
+        <v>0.141981</v>
       </c>
       <c r="C4" s="3">
-        <v>1.0640000000000001E-3</v>
+        <v>1.8079999999999999E-3</v>
       </c>
       <c r="D4" s="3">
-        <v>4.4531000000000001E-2</v>
+        <v>0.13491700000000001</v>
       </c>
       <c r="E4" s="3">
-        <v>3.3340000000000002E-3</v>
+        <v>1.9859999999999999E-3</v>
       </c>
       <c r="F4" s="3">
-        <v>4.6684000000000003E-2</v>
+        <v>6.9927000000000003E-2</v>
       </c>
       <c r="G4" s="3">
-        <v>1.181E-3</v>
+        <v>1.14E-3</v>
       </c>
       <c r="H4" s="3">
-        <v>5.4465E-2</v>
-      </c>
-      <c r="I4" s="4">
-        <v>9.9599999999999992E-4</v>
+        <v>5.2784999999999999E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1.933E-3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -514,28 +5095,28 @@
         <v>8</v>
       </c>
       <c r="B5" s="3">
-        <v>2.9714999999999998E-2</v>
+        <v>2.7789000000000001E-2</v>
       </c>
       <c r="C5" s="3">
-        <v>2.9299999999999999E-3</v>
+        <v>4.4359999999999998E-3</v>
       </c>
       <c r="D5" s="3">
-        <v>3.0685E-2</v>
-      </c>
-      <c r="E5" s="4">
-        <v>3.7300000000000001E-4</v>
+        <v>4.0854000000000001E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3.0899999999999998E-4</v>
       </c>
       <c r="F5" s="3">
-        <v>2.819E-2</v>
-      </c>
-      <c r="G5" s="4">
-        <v>3.0899999999999998E-4</v>
+        <v>2.7812E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3.28E-4</v>
       </c>
       <c r="H5" s="3">
-        <v>3.1271E-2</v>
-      </c>
-      <c r="I5" s="4">
-        <v>3.4299999999999999E-4</v>
+        <v>2.9364000000000001E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3.5399999999999999E-4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -543,28 +5124,28 @@
         <v>9</v>
       </c>
       <c r="B6" s="3">
-        <v>0.10956200000000001</v>
+        <v>0.11704199999999999</v>
       </c>
       <c r="C6" s="4">
-        <v>6.7500000000000004E-4</v>
+        <v>6.8999999999999997E-4</v>
       </c>
       <c r="D6" s="3">
-        <v>0.11124199999999999</v>
-      </c>
-      <c r="E6" s="4">
+        <v>0.111771</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5.7300000000000005E-4</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.110189</v>
+      </c>
+      <c r="G6" s="3">
         <v>5.6999999999999998E-4</v>
       </c>
-      <c r="F6" s="3">
-        <v>0.11212999999999999</v>
-      </c>
-      <c r="G6" s="4">
-        <v>5.6999999999999998E-4</v>
-      </c>
       <c r="H6" s="3">
-        <v>0.114097</v>
-      </c>
-      <c r="I6" s="4">
-        <v>5.7300000000000005E-4</v>
+        <v>0.114803</v>
+      </c>
+      <c r="I6" s="3">
+        <v>5.6599999999999999E-4</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -572,28 +5153,28 @@
         <v>10</v>
       </c>
       <c r="B7" s="3">
-        <v>0.45763799999999999</v>
+        <v>0.46027800000000002</v>
       </c>
       <c r="C7" s="3">
-        <v>1.423E-3</v>
+        <v>1.4040000000000001E-3</v>
       </c>
       <c r="D7" s="3">
-        <v>0.451291</v>
+        <v>0.45682299999999998</v>
       </c>
       <c r="E7" s="3">
         <v>1.0939999999999999E-3</v>
       </c>
       <c r="F7" s="3">
-        <v>0.45656600000000003</v>
+        <v>0.48072700000000002</v>
       </c>
       <c r="G7" s="3">
-        <v>1.1739999999999999E-3</v>
+        <v>1.1620000000000001E-3</v>
       </c>
       <c r="H7" s="3">
-        <v>0.43349599999999999</v>
+        <v>0.54330000000000001</v>
       </c>
       <c r="I7" s="3">
-        <v>1.091E-3</v>
+        <v>1.0870000000000001E-3</v>
       </c>
     </row>
   </sheetData>
@@ -605,5 +5186,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>